--- a/REVER_DailyTracker_20200728.xlsx
+++ b/REVER_DailyTracker_20200728.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410C169B-A834-47B1-91B8-FD8EA788F81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA636E9-37E1-4B49-AE1B-2EDF2D546EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2076" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="98">
   <si>
     <t>Task</t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t>2. RPA Training has been handled on 4th day.</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Input Man Dll checking</t>
   </si>
 </sst>
 </file>
@@ -380,7 +386,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +407,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -479,10 +493,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -521,9 +538,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{2480E3C6-703E-4DF3-ACAC-153FA81CDAD1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -838,22 +860,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+    <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -874,7 +896,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -884,8 +906,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -897,7 +919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -908,10 +930,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -925,9 +947,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -941,9 +963,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -957,8 +979,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -975,19 +997,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -1005,13 +1027,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1025,7 +1047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1039,7 +1061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1047,7 +1069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1055,12 +1077,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1068,7 +1090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1079,7 +1101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1090,7 +1112,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1101,12 +1123,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1117,7 +1139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1128,12 +1150,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1141,7 +1163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1149,7 +1171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1157,7 +1179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1165,12 +1187,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1178,7 +1200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1186,7 +1208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1194,7 +1216,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1202,12 +1224,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1215,7 +1237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1223,7 +1245,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1231,7 +1253,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1239,7 +1261,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1247,12 +1269,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1260,7 +1282,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1268,7 +1290,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1276,7 +1298,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1284,7 +1306,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1292,12 +1314,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1305,7 +1327,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1313,7 +1335,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1321,7 +1343,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1329,7 +1351,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1337,7 +1359,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1345,7 +1367,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1353,12 +1375,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1366,7 +1388,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1374,12 +1396,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1387,22 +1409,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1410,7 +1432,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:7" ht="30">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1418,7 +1440,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:7">
       <c r="D173" t="s">
         <v>30</v>
       </c>
@@ -1426,7 +1448,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:7">
       <c r="D177" t="s">
         <v>30</v>
       </c>
@@ -1434,12 +1456,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:7">
       <c r="G178" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:7" ht="45">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1447,7 +1469,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:7">
       <c r="D184" t="s">
         <v>30</v>
       </c>
@@ -1455,7 +1477,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:7">
       <c r="D186" t="s">
         <v>85</v>
       </c>
@@ -1463,17 +1485,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:7">
       <c r="G187" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:7">
       <c r="G188" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:7">
       <c r="D190" t="s">
         <v>85</v>
       </c>
@@ -1481,7 +1503,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:7">
       <c r="D193" t="s">
         <v>85</v>
       </c>
@@ -1489,17 +1511,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:7">
       <c r="G194" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:7">
       <c r="D196" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:7">
       <c r="D199" t="s">
         <v>85</v>
       </c>
@@ -1507,12 +1529,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:7">
       <c r="G200" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:7">
       <c r="D203" t="s">
         <v>85</v>
       </c>
@@ -1520,7 +1542,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:7">
       <c r="G204" t="s">
         <v>95</v>
       </c>
@@ -1540,18 +1562,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +1596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1583,7 +1605,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1592,46 +1614,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1648,22 +1670,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1686,16 +1708,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>44040</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1704,46 +1734,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1764,18 +1794,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1798,7 +1828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1807,7 +1837,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1816,46 +1846,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1876,18 +1906,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1910,7 +1940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1919,7 +1949,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1928,46 +1958,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1988,18 +2018,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2022,7 +2052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2043,7 +2073,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2052,46 +2082,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2112,18 +2142,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2146,7 +2176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2155,7 +2185,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2164,46 +2194,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2224,18 +2254,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2258,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2267,7 +2297,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2276,46 +2306,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2336,18 +2366,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2370,7 +2400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2379,7 +2409,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2388,46 +2418,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2448,18 +2478,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2482,7 +2512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2491,7 +2521,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2500,46 +2530,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200728.xlsx
+++ b/REVER_DailyTracker_20200728.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA636E9-37E1-4B49-AE1B-2EDF2D546EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF893137-A026-4C1A-B4AF-E8D8EF51BEB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="100">
   <si>
     <t>Task</t>
   </si>
@@ -377,6 +371,12 @@
   </si>
   <si>
     <t>Input Man Dll checking</t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>PR Summary changes</t>
   </si>
 </sst>
 </file>
@@ -864,15 +864,15 @@
       <selection activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -933,7 +933,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -965,7 +965,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1224,12 +1224,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45">
+    <row r="97" spans="4:7" ht="43.2">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60">
+    <row r="100" spans="4:7" ht="43.2">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30">
+    <row r="108" spans="4:7" ht="28.8">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="45">
+    <row r="116" spans="4:7" ht="28.8">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="30">
+    <row r="123" spans="4:7" ht="28.8">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="30">
+    <row r="126" spans="4:7" ht="28.8">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="30">
+    <row r="129" spans="4:7" ht="28.8">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="45">
+    <row r="135" spans="4:7" ht="28.8">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="60">
+    <row r="139" spans="4:7" ht="43.2">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="75">
+    <row r="143" spans="4:7" ht="43.2">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="45">
+    <row r="150" spans="4:7" ht="43.2">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="30">
+    <row r="168" spans="4:7" ht="28.8">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="45">
+    <row r="181" spans="4:7" ht="28.8">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1562,15 +1562,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1670,19 +1670,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1794,15 +1794,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1902,19 +1902,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1943,9 +1943,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -2018,15 +2024,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2142,15 +2148,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2254,15 +2260,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2366,15 +2372,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2478,15 +2484,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
